--- a/modeling/results/results_text_emb.xlsx
+++ b/modeling/results/results_text_emb.xlsx
@@ -49,17 +49,22 @@
     <t>baseline</t>
   </si>
   <si>
-    <t>MLPClassifier(early_stopping=True, learning_rate_init=0.01, max_iter=512,
-              random_state=42)</t>
+    <t>MLPClassifier(batch_size=64, early_stopping=True,
+              hidden_layer_sizes=(32, 32, 32), learning_rate='adaptive',
+              learning_rate_init=0.1, max_iter=512, random_state=42,
+              solver='sgd')</t>
   </si>
   <si>
     <t>GaussianNB(var_smoothing=1e-10)</t>
   </si>
   <si>
-    <t>RandomForestClassifier(max_features='sqrt', n_jobs=8, random_state=42)</t>
-  </si>
-  <si>
-    <t>SVC(cache_size=64, max_iter=1024, random_state=42)</t>
+    <t>RandomForestClassifier(criterion='entropy', max_depth=16, max_features='sqrt',
+                       max_leaf_nodes=128, n_estimators=64, n_jobs=8,
+                       random_state=42)</t>
+  </si>
+  <si>
+    <t>SVC(C=32, cache_size=64, coef0=0.7, decision_function_shape='ovo', gamma=0.001,
+    kernel='poly', max_iter=1024, random_state=42)</t>
   </si>
   <si>
     <t>Majority</t>
@@ -454,13 +459,13 @@
         <v>11</v>
       </c>
       <c r="C2">
-        <v>0.8010335917312662</v>
+        <v>0.7827225130890052</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.7202103187643772</v>
+        <v>0.6734134709475398</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -474,13 +479,13 @@
         <v>12</v>
       </c>
       <c r="C3">
-        <v>0.6304909560723514</v>
+        <v>0.6308900523560209</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.5897171664751454</v>
+        <v>0.5881952674031882</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -494,13 +499,13 @@
         <v>13</v>
       </c>
       <c r="C4">
-        <v>0.7777777777777778</v>
+        <v>0.7774869109947644</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.5870719602977668</v>
+        <v>0.6084319187680137</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -514,13 +519,13 @@
         <v>14</v>
       </c>
       <c r="C5">
-        <v>0.7855297157622739</v>
+        <v>0.7827225130890052</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.6478153609999452</v>
+        <v>0.6995346985965145</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -534,13 +539,13 @@
         <v>15</v>
       </c>
       <c r="C6">
-        <v>0.7416020671834626</v>
+        <v>0.7382198952879581</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.4258160237388724</v>
+        <v>0.4246987951807229</v>
       </c>
       <c r="F6">
         <v>0</v>

--- a/modeling/results/results_text_emb.xlsx
+++ b/modeling/results/results_text_emb.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Model</t>
   </si>
@@ -34,6 +34,9 @@
     <t>Std F1</t>
   </si>
   <si>
+    <t>Conf Matrix</t>
+  </si>
+  <si>
     <t>MLP</t>
   </si>
   <si>
@@ -49,25 +52,40 @@
     <t>baseline</t>
   </si>
   <si>
-    <t>MLPClassifier(batch_size=64, early_stopping=True,
-              hidden_layer_sizes=(32, 32, 32), learning_rate='adaptive',
-              learning_rate_init=0.1, max_iter=512, random_state=42,
-              solver='sgd')</t>
+    <t>MLPClassifier(early_stopping=True, learning_rate_init=0.01, max_iter=512,
+              random_state=42)</t>
   </si>
   <si>
     <t>GaussianNB(var_smoothing=1e-10)</t>
   </si>
   <si>
-    <t>RandomForestClassifier(criterion='entropy', max_depth=16, max_features='sqrt',
-                       max_leaf_nodes=128, n_estimators=64, n_jobs=8,
-                       random_state=42)</t>
-  </si>
-  <si>
-    <t>SVC(C=32, cache_size=64, coef0=0.7, decision_function_shape='ovo', gamma=0.001,
-    kernel='poly', max_iter=1024, random_state=42)</t>
+    <t>RandomForestClassifier(max_features='sqrt', n_jobs=8, random_state=42)</t>
+  </si>
+  <si>
+    <t>SVC(C=32, max_iter=1024, random_state=42)</t>
   </si>
   <si>
     <t>Majority</t>
+  </si>
+  <si>
+    <t>[array([[260,  23],
+       [ 72,  26]])]</t>
+  </si>
+  <si>
+    <t>[array([[189,  94],
+       [ 42,  56]])]</t>
+  </si>
+  <si>
+    <t>[array([[279,   4],
+       [ 79,  19]])]</t>
+  </si>
+  <si>
+    <t>[array([[245,  38],
+       [ 45,  53]])]</t>
+  </si>
+  <si>
+    <t>[array([[283,   0],
+       [ 98,   0]])]</t>
   </si>
 </sst>
 </file>
@@ -425,13 +443,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -450,105 +468,123 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2">
+        <v>0.7506561679790026</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0.5996349759415962</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3">
+        <v>0.6430446194225722</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0.5935107317685453</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4">
+        <v>0.7821522309711286</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0.5922822036848416</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5">
+        <v>0.7821522309711286</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0.7079974514529488</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
         <v>11</v>
       </c>
-      <c r="C2">
-        <v>0.7827225130890052</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0.6734134709475398</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3">
-        <v>0.6308900523560209</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0.5881952674031882</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4">
-        <v>0.7774869109947644</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0.6084319187680137</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5">
-        <v>0.7827225130890052</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0.6995346985965145</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6">
-        <v>0.7382198952879581</v>
+        <v>0.7427821522309711</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.4246987951807229</v>
+        <v>0.4262048192771085</v>
       </c>
       <c r="F6">
         <v>0</v>
+      </c>
+      <c r="G6" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/modeling/results/results_text_emb.xlsx
+++ b/modeling/results/results_text_emb.xlsx
@@ -52,40 +52,39 @@
     <t>baseline</t>
   </si>
   <si>
-    <t>MLPClassifier(early_stopping=True, learning_rate_init=0.01, max_iter=512,
-              random_state=42)</t>
-  </si>
-  <si>
-    <t>GaussianNB(var_smoothing=1e-10)</t>
-  </si>
-  <si>
-    <t>RandomForestClassifier(max_features='sqrt', n_jobs=8, random_state=42)</t>
-  </si>
-  <si>
-    <t>SVC(C=32, max_iter=1024, random_state=42)</t>
+    <t>{'learning_rate_init': 0.01}</t>
+  </si>
+  <si>
+    <t>{'var_smoothing': 1e-10}</t>
+  </si>
+  <si>
+    <t>{'max_features': 'log2'}</t>
+  </si>
+  <si>
+    <t>{'decision_function_shape': 'ovo'}</t>
   </si>
   <si>
     <t>Majority</t>
   </si>
   <si>
-    <t>[array([[260,  23],
-       [ 72,  26]])]</t>
-  </si>
-  <si>
-    <t>[array([[189,  94],
-       [ 42,  56]])]</t>
-  </si>
-  <si>
-    <t>[array([[279,   4],
-       [ 79,  19]])]</t>
-  </si>
-  <si>
-    <t>[array([[245,  38],
-       [ 45,  53]])]</t>
-  </si>
-  <si>
-    <t>[array([[283,   0],
-       [ 98,   0]])]</t>
+    <t>[array([[237,  50],
+       [ 44,  55]])]</t>
+  </si>
+  <si>
+    <t>[array([[181, 106],
+       [ 37,  62]])]</t>
+  </si>
+  <si>
+    <t>[array([[282,   5],
+       [ 81,  18]])]</t>
+  </si>
+  <si>
+    <t>[array([[271,  16],
+       [ 64,  35]])]</t>
+  </si>
+  <si>
+    <t>[array([[287,   0],
+       [ 99,   0]])]</t>
   </si>
 </sst>
 </file>
@@ -480,13 +479,13 @@
         <v>12</v>
       </c>
       <c r="C2">
-        <v>0.7506561679790026</v>
+        <v>0.7564766839378239</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.5996349759415962</v>
+        <v>0.6868613642640153</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -503,13 +502,13 @@
         <v>13</v>
       </c>
       <c r="C3">
-        <v>0.6430446194225722</v>
+        <v>0.6295336787564767</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.5935107317685453</v>
+        <v>0.5906255794118738</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -526,13 +525,13 @@
         <v>14</v>
       </c>
       <c r="C4">
-        <v>0.7821522309711286</v>
+        <v>0.7772020725388601</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.5922822036848416</v>
+        <v>0.5813871374527112</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -549,13 +548,13 @@
         <v>15</v>
       </c>
       <c r="C5">
-        <v>0.7821522309711286</v>
+        <v>0.7927461139896373</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.7079974514529488</v>
+        <v>0.6690246516613076</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -572,13 +571,13 @@
         <v>16</v>
       </c>
       <c r="C6">
-        <v>0.7427821522309711</v>
+        <v>0.7435233160621761</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.4262048192771085</v>
+        <v>0.4264487369985141</v>
       </c>
       <c r="F6">
         <v>0</v>

--- a/modeling/results/results_text_emb.xlsx
+++ b/modeling/results/results_text_emb.xlsx
@@ -52,39 +52,39 @@
     <t>baseline</t>
   </si>
   <si>
-    <t>{'learning_rate_init': 0.01}</t>
+    <t>{'activation': 'relu', 'batch_size': 128, 'hidden_layer_sizes': (64, 64, 64), 'learning_rate': 'constant', 'learning_rate_init': 0.1, 'solver': 'sgd'}</t>
   </si>
   <si>
     <t>{'var_smoothing': 1e-10}</t>
   </si>
   <si>
-    <t>{'max_features': 'log2'}</t>
-  </si>
-  <si>
-    <t>{'decision_function_shape': 'ovo'}</t>
+    <t>{'criterion': 'entropy', 'max_depth': 32, 'max_features': 'sqrt', 'max_leaf_nodes': 256, 'n_estimators': 1024}</t>
+  </si>
+  <si>
+    <t>{'C': 8, 'cache_size': 32, 'coef0': 0, 'decision_function_shape': 'ovo', 'degree': 1, 'gamma': 0.01, 'kernel': 'rbf'}</t>
   </si>
   <si>
     <t>Majority</t>
   </si>
   <si>
-    <t>[array([[237,  50],
-       [ 44,  55]])]</t>
-  </si>
-  <si>
-    <t>[array([[181, 106],
-       [ 37,  62]])]</t>
-  </si>
-  <si>
-    <t>[array([[282,   5],
-       [ 81,  18]])]</t>
-  </si>
-  <si>
-    <t>[array([[271,  16],
-       [ 64,  35]])]</t>
-  </si>
-  <si>
-    <t>[array([[287,   0],
-       [ 99,   0]])]</t>
+    <t>[array([[272,  11],
+       [ 70,  27]])]</t>
+  </si>
+  <si>
+    <t>[array([[185,  98],
+       [ 41,  56]])]</t>
+  </si>
+  <si>
+    <t>[array([[279,   4],
+       [ 75,  22]])]</t>
+  </si>
+  <si>
+    <t>[array([[250,  33],
+       [ 51,  46]])]</t>
+  </si>
+  <si>
+    <t>[array([[283,   0],
+       [ 97,   0]])]</t>
   </si>
 </sst>
 </file>
@@ -479,13 +479,13 @@
         <v>12</v>
       </c>
       <c r="C2">
-        <v>0.7564766839378239</v>
+        <v>0.7868421052631579</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.6868613642640153</v>
+        <v>0.6352</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -502,13 +502,13 @@
         <v>13</v>
       </c>
       <c r="C3">
-        <v>0.6295336787564767</v>
+        <v>0.6342105263157894</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.5906255794118738</v>
+        <v>0.5865653300354574</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -525,13 +525,13 @@
         <v>14</v>
       </c>
       <c r="C4">
-        <v>0.7772020725388601</v>
+        <v>0.7921052631578948</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.5813871374527112</v>
+        <v>0.61685236946561</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>15</v>
       </c>
       <c r="C5">
-        <v>0.7927461139896373</v>
+        <v>0.7789473684210526</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.6690246516613076</v>
+        <v>0.6894458281444582</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -571,13 +571,13 @@
         <v>16</v>
       </c>
       <c r="C6">
-        <v>0.7435233160621761</v>
+        <v>0.7447368421052631</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.4264487369985141</v>
+        <v>0.4268476621417798</v>
       </c>
       <c r="F6">
         <v>0</v>

--- a/modeling/results/results_text_emb.xlsx
+++ b/modeling/results/results_text_emb.xlsx
@@ -52,13 +52,13 @@
     <t>baseline</t>
   </si>
   <si>
-    <t>{'activation': 'relu', 'batch_size': 128, 'hidden_layer_sizes': (64, 64, 64), 'learning_rate': 'constant', 'learning_rate_init': 0.1, 'solver': 'sgd'}</t>
+    <t>{'activation': 'tanh', 'batch_size': 32, 'hidden_layer_sizes': (64, 64, 64, 64), 'learning_rate': 'adaptive', 'learning_rate_init': 0.01, 'solver': 'sgd'}</t>
   </si>
   <si>
     <t>{'var_smoothing': 1e-10}</t>
   </si>
   <si>
-    <t>{'criterion': 'entropy', 'max_depth': 32, 'max_features': 'sqrt', 'max_leaf_nodes': 256, 'n_estimators': 1024}</t>
+    <t>{'criterion': 'gini', 'max_depth': 16, 'max_features': 'sqrt', 'max_leaf_nodes': 256, 'n_estimators': 64}</t>
   </si>
   <si>
     <t>{'C': 8, 'cache_size': 32, 'coef0': 0, 'decision_function_shape': 'ovo', 'degree': 1, 'gamma': 0.01, 'kernel': 'rbf'}</t>
@@ -67,24 +67,24 @@
     <t>Majority</t>
   </si>
   <si>
-    <t>[array([[272,  11],
-       [ 70,  27]])]</t>
-  </si>
-  <si>
-    <t>[array([[185,  98],
-       [ 41,  56]])]</t>
-  </si>
-  <si>
-    <t>[array([[279,   4],
-       [ 75,  22]])]</t>
-  </si>
-  <si>
-    <t>[array([[250,  33],
-       [ 51,  46]])]</t>
-  </si>
-  <si>
-    <t>[array([[283,   0],
-       [ 97,   0]])]</t>
+    <t>[array([[240,  39],
+       [ 40,  59]])]</t>
+  </si>
+  <si>
+    <t>[array([[182,  97],
+       [ 43,  56]])]</t>
+  </si>
+  <si>
+    <t>[array([[271,   8],
+       [ 76,  23]])]</t>
+  </si>
+  <si>
+    <t>[array([[247,  32],
+       [ 55,  44]])]</t>
+  </si>
+  <si>
+    <t>[array([[279,   0],
+       [ 99,   0]])]</t>
   </si>
 </sst>
 </file>
@@ -479,13 +479,13 @@
         <v>12</v>
       </c>
       <c r="C2">
-        <v>0.7868421052631579</v>
+        <v>0.791005291005291</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.6352</v>
+        <v>0.7288304895435105</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -502,13 +502,13 @@
         <v>13</v>
       </c>
       <c r="C3">
-        <v>0.6342105263157894</v>
+        <v>0.6296296296296297</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.5865653300354574</v>
+        <v>0.5833333333333333</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -525,13 +525,13 @@
         <v>14</v>
       </c>
       <c r="C4">
-        <v>0.7921052631578948</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.61685236946561</v>
+        <v>0.6098304251658885</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>15</v>
       </c>
       <c r="C5">
-        <v>0.7789473684210526</v>
+        <v>0.7698412698412699</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.6894458281444582</v>
+        <v>0.6765576592082616</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -571,13 +571,13 @@
         <v>16</v>
       </c>
       <c r="C6">
-        <v>0.7447368421052631</v>
+        <v>0.7380952380952381</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.4268476621417798</v>
+        <v>0.4246575342465754</v>
       </c>
       <c r="F6">
         <v>0</v>
